--- a/Sprint 3/USBD22/Dataset normalizado.xlsx
+++ b/Sprint 3/USBD22/Dataset normalizado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Documentos\bddad2024\Sprint 3\USBD22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\Desktop\BDDAD\bddad2024\Sprint 3\USBD22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264FD31-7D9D-4FBA-9405-5D2A9207BBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C569BA-EEC6-475C-9C9E-F49FA80F93E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="700" activeTab="6" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="700" firstSheet="1" activeTab="6" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="246">
   <si>
     <t>Name</t>
   </si>
@@ -1381,7 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8F968F-3FE6-476E-97DD-6EBBFE3BD57E}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -2917,7 +2917,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3730,7 +3730,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3926,7 +3926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C51F7F7-8394-4DF7-8369-AC46CFCEB4B5}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -5012,10 +5012,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F07C3D1-0B8F-4AC3-A104-C9B8994DB4F3}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5263,28 +5263,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>12298</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="6">
-        <v>45108</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5">
-        <v>10.25</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Procurement(SupplierId,ExternalPartId,StartDate,EndDate,MinQuantity,Price) VALUES(12298, 'AS12945G48', TO_DATE('01/07/2023', 'dd/MM/YYYY'), TO_DATE(NULL, 'dd/MM/YYYY'), 10, 10,25);</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5302,84 +5286,33 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>12345</v>
+        <v>12298</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:C23" si="1">"INSERT INTO Supplier(" &amp; $A$13 &amp; ") VALUES(" &amp; A15 &amp; ");"</f>
-        <v>INSERT INTO Supplier(Id) VALUES(12345);</v>
+        <f>"INSERT INTO Supplier(" &amp; $A$13 &amp; ") VALUES(" &amp; A15 &amp; ");"</f>
+        <v>INSERT INTO Supplier(Id) VALUES(12298);</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>12345</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Supplier(Id) VALUES(12345);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>12345</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Supplier(Id) VALUES(12345);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>12345</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Supplier(Id) VALUES(12345);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>12298</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Supplier(Id) VALUES(12298);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>12298</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Supplier(Id) VALUES(12298);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>12298</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Supplier(Id) VALUES(12298);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>12298</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Supplier(Id) VALUES(12298);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>12298</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Supplier(Id) VALUES(12298);</v>
-      </c>
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6108,8 +6041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629B436D-7E6F-45CD-A274-6E2AE1A9129E}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7746,11 +7679,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7987,27 +7921,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7026BE-4F45-4595-B98C-E9D8129D4591}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F835-22B2-4A5C-B33C-2EBD4DAC13D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c83fef03-7e53-47dc-8a06-28f89aa017e1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8032,9 +7956,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F835-22B2-4A5C-B33C-2EBD4DAC13D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7026BE-4F45-4595-B98C-E9D8129D4591}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c83fef03-7e53-47dc-8a06-28f89aa017e1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sprint 3/USBD22/Dataset normalizado.xlsx
+++ b/Sprint 3/USBD22/Dataset normalizado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\Desktop\BDDAD\bddad2024\Sprint 3\USBD22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C569BA-EEC6-475C-9C9E-F49FA80F93E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4173859-9D03-4EA8-B663-BD7E96E7BBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="700" firstSheet="1" activeTab="6" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="700" firstSheet="1" activeTab="8" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="246">
   <si>
     <t>Name</t>
   </si>
@@ -5014,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F07C3D1-0B8F-4AC3-A104-C9B8994DB4F3}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5263,12 +5263,28 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="5">
+        <v>12298</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45108</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="5">
+        <v>200</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Procurement(SupplierId,ExternalPartId,StartDate,EndDate,MinQuantity,Price) VALUES(12298, 'PN12344A21', TO_DATE('01/07/2023', 'dd/MM/YYYY'), TO_DATE(NULL, 'dd/MM/YYYY'), 200, 0,65);</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6039,10 +6055,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629B436D-7E6F-45CD-A274-6E2AE1A9129E}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6683,7 +6699,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" ref="F37:F69" si="2">"INSERT INTO OperationInput(" &amp; $A$35&amp; "," &amp; $B$35 &amp; "," &amp; $C$35 &amp; "," &amp; $D$35 &amp; ") VALUES('" &amp; A37 &amp; "', '" &amp; B37 &amp; "', '" &amp; C37 &amp; "', '" &amp; D37 &amp; "');"</f>
+        <f t="shared" ref="F37:F73" si="2">"INSERT INTO OperationInput(" &amp; $A$35&amp; "," &amp; $B$35 &amp; "," &amp; $C$35 &amp; "," &amp; $D$35 &amp; ") VALUES('" &amp; A37 &amp; "', '" &amp; B37 &amp; "', '" &amp; C37 &amp; "', '" &amp; D37 &amp; "');"</f>
         <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('103', 'IP12945A01', '1', '5');</v>
       </c>
     </row>
@@ -6782,43 +6798,43 @@
         <v>115</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C43" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" s="4">
         <v>5</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('115', 'PN18544C21', '2', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('115', 'PN18544A21', '4', '5');</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4">
         <v>5</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('120', 'PN52384R10', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('115', 'PN18544C21', '2', '5');</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -6828,7 +6844,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('121', 'IP12947A01', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('120', 'PN52384R10', '1', '5');</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6836,43 +6852,43 @@
         <v>121</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
         <v>5</v>
-      </c>
-      <c r="D46" s="4">
-        <v>4</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('121', 'PN94561L67', '5', '4');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('121', 'IP12947A01', '1', '5');</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C47" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('122', 'IP12947A02', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('121', 'PN94561L67', '5', '4');</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -6882,7 +6898,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('123', 'IP12947A03', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('122', 'IP12947A02', '1', '5');</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6890,7 +6906,7 @@
         <v>123</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -6900,15 +6916,15 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('123', 'PN18324C54', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('123', 'IP12947A03', '1', '5');</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -6918,33 +6934,33 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('124', 'IP12947A04', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('123', 'PN18324C54', '1', '5');</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="C51" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4">
         <v>5</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('130', 'AS12947S22', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('123', 'PN12344A21', '3', '5');</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -6954,15 +6970,15 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('130', 'AS12946S22', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('124', 'IP12947A04', '1', '5');</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -6972,15 +6988,15 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('150', 'PN52384R50', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('130', 'AS12947S22', '1', '5');</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -6990,33 +7006,33 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('151', 'IP12945A01', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('130', 'AS12946S22', '1', '5');</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
         <v>5</v>
-      </c>
-      <c r="D55" s="4">
-        <v>4</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('151', 'PN94561L67', '5', '4');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('150', 'PN52384R50', '1', '5');</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -7026,12 +7042,12 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('152', 'IP12945A32', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('151', 'IP12945A01', '1', '5');</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>202</v>
@@ -7044,15 +7060,15 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('152', 'PN94561L67', '5', '4');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('151', 'PN94561L67', '5', '4');</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -7062,51 +7078,51 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('153', 'IP12945A33', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('152', 'IP12945A32', '1', '5');</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C59" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('154', 'IP12945A34', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('152', 'PN94561L67', '5', '4');</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="C60" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="4">
         <v>5</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('154', 'PN18544C21', '2', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('153', 'IP12945A33', '1', '5');</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -7116,51 +7132,51 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('160', 'PN52384R10', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('154', 'IP12945A34', '1', '5');</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="C62" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="4">
         <v>5</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('161', 'IP12947A01', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('154', 'PN18544C21', '2', '5');</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="C63" s="4">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
         <v>5</v>
-      </c>
-      <c r="D63" s="4">
-        <v>4</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('161', 'PN94561L67', '5', '4');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('154', 'PN18544A21', '4', '5');</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
@@ -7170,15 +7186,15 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('162', 'IP12947A32', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('160', 'PN52384R10', '1', '5');</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
@@ -7188,33 +7204,33 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('163', 'IP12947A33', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('161', 'IP12947A01', '1', '5');</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="C66" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('163', 'PN18324C51', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('161', 'PN94561L67', '5', '4');</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -7224,15 +7240,15 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('164', 'IP12947A34', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('162', 'IP12947A32', '1', '5');</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
@@ -7242,15 +7258,15 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('170', 'AS12946S20', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('163', 'IP12947A33', '1', '5');</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -7260,29 +7276,69 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('170', 'AS12947S20', '1', '5');</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>225</v>
-      </c>
-      <c r="B72" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B73" s="4">
-        <v>100</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('163', 'PN18324C51', '1', '5');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>163</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="4">
+        <v>3</v>
+      </c>
+      <c r="D70" s="4">
+        <v>5</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('163', 'PN12344A21', '3', '5');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>164</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>5</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('164', 'IP12947A34', '1', '5');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>170</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4">
+        <v>5</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('170', 'AS12946S20', '1', '5');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>170</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -7291,384 +7347,416 @@
         <v>5</v>
       </c>
       <c r="F73" t="str">
-        <f>"INSERT INTO OutputPart(" &amp; $B$72&amp; "," &amp; $A$72 &amp; "," &amp; $C$72 &amp; "," &amp; $D$72 &amp; ") VALUES('" &amp; B73 &amp; "', '" &amp; A73 &amp; "', '" &amp; C73 &amp; "', '" &amp; D73 &amp; "');"</f>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('170', 'AS12947S20', '1', '5');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="4">
+        <v>100</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4">
+        <v>5</v>
+      </c>
+      <c r="F77" t="str">
+        <f>"INSERT INTO OutputPart(" &amp; $B$76&amp; "," &amp; $A$76 &amp; "," &amp; $C$76 &amp; "," &amp; $D$76 &amp; ") VALUES('" &amp; B77 &amp; "', '" &amp; A77 &amp; "', '" &amp; C77 &amp; "', '" &amp; D77 &amp; "');"</f>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('100', 'IP12945A01', '1', '5');</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B78" s="4">
         <v>103</v>
       </c>
-      <c r="C74" s="4">
-        <v>1</v>
-      </c>
-      <c r="D74" s="4">
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
         <v>5</v>
       </c>
-      <c r="F74" t="str">
-        <f t="shared" ref="F74:F94" si="3">"INSERT INTO OutputPart(" &amp; $B$72&amp; "," &amp; $A$72 &amp; "," &amp; $C$72 &amp; "," &amp; $D$72 &amp; ") VALUES('" &amp; B74 &amp; "', '" &amp; A74 &amp; "', '" &amp; C74 &amp; "', '" &amp; D74 &amp; "');"</f>
+      <c r="F78" t="str">
+        <f t="shared" ref="F78:F98" si="3">"INSERT INTO OutputPart(" &amp; $B$76&amp; "," &amp; $A$76 &amp; "," &amp; $C$76 &amp; "," &amp; $D$76 &amp; ") VALUES('" &amp; B78 &amp; "', '" &amp; A78 &amp; "', '" &amp; C78 &amp; "', '" &amp; D78 &amp; "');"</f>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('103', 'IP12945A02', '1', '5');</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B79" s="4">
         <v>112</v>
       </c>
-      <c r="C75" s="4">
-        <v>1</v>
-      </c>
-      <c r="D75" s="4">
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4">
         <v>5</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F79" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('112', 'IP12945A03', '1', '5');</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B80" s="4">
         <v>114</v>
       </c>
-      <c r="C76" s="4">
-        <v>1</v>
-      </c>
-      <c r="D76" s="4">
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
         <v>5</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F80" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('114', 'IP12945A04', '1', '5');</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B81" s="4">
         <v>115</v>
       </c>
-      <c r="C77" s="4">
-        <v>1</v>
-      </c>
-      <c r="D77" s="4">
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
         <v>5</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F81" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('115', 'AS12946S22', '1', '5');</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B82" s="4">
         <v>120</v>
       </c>
-      <c r="C78" s="4">
-        <v>1</v>
-      </c>
-      <c r="D78" s="4">
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
         <v>5</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F82" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('120', 'IP12947A01', '1', '5');</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B83" s="4">
         <v>121</v>
       </c>
-      <c r="C79" s="4">
-        <v>1</v>
-      </c>
-      <c r="D79" s="4">
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+      <c r="D83" s="4">
         <v>5</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F83" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('121', 'IP12947A02', '1', '5');</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B84" s="4">
         <v>122</v>
       </c>
-      <c r="C80" s="4">
-        <v>1</v>
-      </c>
-      <c r="D80" s="4">
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
         <v>5</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F84" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('122', 'IP12947A03', '1', '5');</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B85" s="4">
         <v>123</v>
       </c>
-      <c r="C81" s="4">
-        <v>1</v>
-      </c>
-      <c r="D81" s="4">
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
         <v>5</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F85" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('123', 'IP12947A04', '1', '5');</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B86" s="4">
         <v>124</v>
       </c>
-      <c r="C82" s="4">
-        <v>1</v>
-      </c>
-      <c r="D82" s="4">
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
         <v>5</v>
       </c>
-      <c r="F82" t="str">
+      <c r="F86" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('124', 'AS12947S22', '1', '5');</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B87" s="4">
         <v>130</v>
       </c>
-      <c r="C83" s="4">
-        <v>1</v>
-      </c>
-      <c r="D83" s="4">
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4">
         <v>5</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F87" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('130', 'AS12945S22', '1', '5');</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B88" s="4">
         <v>150</v>
       </c>
-      <c r="C84" s="4">
-        <v>1</v>
-      </c>
-      <c r="D84" s="4">
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
         <v>5</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F88" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('150', 'IP12945A01', '1', '5');</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B89" s="4">
         <v>151</v>
       </c>
-      <c r="C85" s="4">
-        <v>1</v>
-      </c>
-      <c r="D85" s="4">
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
         <v>5</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F89" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('151', 'IP12945A32', '1', '5');</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B90" s="4">
         <v>152</v>
       </c>
-      <c r="C86" s="4">
-        <v>1</v>
-      </c>
-      <c r="D86" s="4">
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4">
         <v>5</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F90" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('152', 'IP12945A33', '1', '5');</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B91" s="4">
         <v>153</v>
       </c>
-      <c r="C87" s="4">
-        <v>1</v>
-      </c>
-      <c r="D87" s="4">
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4">
         <v>5</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F91" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('153', 'IP12945A34', '1', '5');</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B92" s="4">
         <v>154</v>
       </c>
-      <c r="C88" s="4">
-        <v>1</v>
-      </c>
-      <c r="D88" s="4">
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+      <c r="D92" s="4">
         <v>5</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F92" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('154', 'AS12946S20', '1', '5');</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B93" s="4">
         <v>160</v>
       </c>
-      <c r="C89" s="4">
-        <v>1</v>
-      </c>
-      <c r="D89" s="4">
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4">
         <v>5</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F93" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('160', 'IP12947A01', '1', '5');</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B94" s="4">
         <v>161</v>
       </c>
-      <c r="C90" s="4">
-        <v>1</v>
-      </c>
-      <c r="D90" s="4">
+      <c r="C94" s="4">
+        <v>1</v>
+      </c>
+      <c r="D94" s="4">
         <v>5</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F94" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('161', 'IP12947A32', '1', '5');</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B95" s="4">
         <v>162</v>
       </c>
-      <c r="C91" s="4">
-        <v>1</v>
-      </c>
-      <c r="D91" s="4">
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4">
         <v>5</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F95" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('162', 'IP12947A33', '1', '5');</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B96" s="4">
         <v>163</v>
       </c>
-      <c r="C92" s="4">
-        <v>1</v>
-      </c>
-      <c r="D92" s="4">
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4">
         <v>5</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F96" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('163', 'IP12947A34', '1', '5');</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B97" s="4">
         <v>164</v>
       </c>
-      <c r="C93" s="4">
-        <v>1</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4">
         <v>5</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F97" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('164', 'AS12947S20', '1', '5');</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B98" s="4">
         <v>170</v>
       </c>
-      <c r="C94" s="4">
-        <v>1</v>
-      </c>
-      <c r="D94" s="4">
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="4">
         <v>5</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F98" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO OutputPart(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('170', 'AS12945S20', '1', '5');</v>
       </c>
@@ -7679,12 +7767,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7921,17 +8008,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F835-22B2-4A5C-B33C-2EBD4DAC13D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7026BE-4F45-4595-B98C-E9D8129D4591}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c83fef03-7e53-47dc-8a06-28f89aa017e1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7956,18 +8053,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7026BE-4F45-4595-B98C-E9D8129D4591}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F835-22B2-4A5C-B33C-2EBD4DAC13D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6d3c5dfb-1cc0-4432-86cb-2a9d0e8e17b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c83fef03-7e53-47dc-8a06-28f89aa017e1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>